--- a/525/data/prompt_time.xlsx
+++ b/525/data/prompt_time.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="prompt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -692,11 +692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316327424"/>
-        <c:axId val="316222848"/>
+        <c:axId val="276985728"/>
+        <c:axId val="276987264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316327424"/>
+        <c:axId val="276985728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,12 +706,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316222848"/>
+        <c:crossAx val="276987264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316222848"/>
+        <c:axId val="276987264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316327424"/>
+        <c:crossAx val="276985728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1069,7 +1069,7 @@
   <dimension ref="C4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D11"/>
+      <selection activeCell="C4" sqref="C4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
